--- a/Excels/SAMPLE.xlsx
+++ b/Excels/SAMPLE.xlsx
@@ -18,13 +18,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="4">
@@ -77,7 +82,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
@@ -95,9 +100,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="true"/>
-    <col min="2" max="2" width="10.9375" customWidth="true"/>
-    <col min="3" max="3" width="10.9375" customWidth="true"/>
+    <col min="1" max="1" width="20.0" customWidth="true"/>
+    <col min="2" max="2" width="20.0" customWidth="true"/>
+    <col min="3" max="3" width="20.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
